--- a/excel_graphs/end_agg_graphs.xlsx
+++ b/excel_graphs/end_agg_graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\data_projects\pes_report\pes-nippes-data-cleaning\excel_graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F9BA8-F4AF-441B-A65A-477170DD33FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8649DA-79FA-41E0-8BDD-B947155F76D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="850" firstSheet="9" activeTab="14" xr2:uid="{54DD5910-9903-4B13-BEAA-F5776CAFEE66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="850" firstSheet="9" activeTab="13" xr2:uid="{54DD5910-9903-4B13-BEAA-F5776CAFEE66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sex" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="190">
   <si>
     <t>Respondents</t>
   </si>
@@ -609,6 +609,18 @@
   <si>
     <t>Are you willing to learn new fishing technics? - Fishers</t>
   </si>
+  <si>
+    <t>Endline (N=85)</t>
+  </si>
+  <si>
+    <t>Baseline (N=92)</t>
+  </si>
+  <si>
+    <t>Endline (N=37)</t>
+  </si>
+  <si>
+    <t>Are you willing to be trained in tree nursery? - Farmers</t>
+  </si>
 </sst>
 </file>
 
@@ -722,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -903,12 +915,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1086,6 +1124,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,18 +1141,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1128,14 +1160,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15883,21 +15918,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Are you willing to be trained to protect the mangroves? - Farmers</a:t>
+              <a:t>Are you willing to be trained in tree nursery? - Farmers</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -15915,16 +15950,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -15954,7 +15989,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -15962,6 +15999,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'farmers attitudes'!$C$21:$C$22</c:f>
@@ -16013,7 +16107,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -16021,6 +16117,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'farmers attitudes'!$C$21:$C$22</c:f>
@@ -16057,15 +16210,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
         <c:axId val="1149412783"/>
         <c:axId val="1149409871"/>
       </c:barChart>
@@ -16082,11 +16236,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -16098,7 +16252,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -16125,15 +16279,15 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -16145,33 +16299,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1149412783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -16228,7 +16355,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -17939,20 +18066,29 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Age structure'!$C$2:$F$3</c:f>
+              <c:f>'Age structure'!$C$2:$I$3</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Baseline</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>Baseline (N=65)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>Endline</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
+                    <c:v>Endline (N=85)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Baseline</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
+                    <c:v>Baseline (N=92)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>Endline</c:v>
                   </c:pt>
                 </c:lvl>
@@ -17960,7 +18096,7 @@
                   <c:pt idx="0">
                     <c:v>Male</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="4">
                     <c:v>Female</c:v>
                   </c:pt>
                 </c:lvl>
@@ -17969,20 +18105,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Age structure'!$C$4:$F$4</c:f>
+              <c:f>'Age structure'!$C$4:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.30769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.38043478260869568</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
@@ -18077,20 +18222,29 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Age structure'!$C$2:$F$3</c:f>
+              <c:f>'Age structure'!$C$2:$I$3</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Baseline</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>Baseline (N=65)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>Endline</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
+                    <c:v>Endline (N=85)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Baseline</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
+                    <c:v>Baseline (N=92)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>Endline</c:v>
                   </c:pt>
                 </c:lvl>
@@ -18098,7 +18252,7 @@
                   <c:pt idx="0">
                     <c:v>Male</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="4">
                     <c:v>Female</c:v>
                   </c:pt>
                 </c:lvl>
@@ -18107,20 +18261,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Age structure'!$C$5:$F$5</c:f>
+              <c:f>'Age structure'!$C$5:$I$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.50769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.36956521739130432</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -18215,20 +18378,29 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Age structure'!$C$2:$F$3</c:f>
+              <c:f>'Age structure'!$C$2:$I$3</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Baseline</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>Baseline (N=65)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>Endline</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
+                    <c:v>Endline (N=85)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Baseline</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
+                    <c:v>Baseline (N=92)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>Endline</c:v>
                   </c:pt>
                 </c:lvl>
@@ -18236,7 +18408,7 @@
                   <c:pt idx="0">
                     <c:v>Male</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="4">
                     <c:v>Female</c:v>
                   </c:pt>
                 </c:lvl>
@@ -18245,20 +18417,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Age structure'!$C$6:$F$6</c:f>
+              <c:f>'Age structure'!$C$6:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6.1538461538461542E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>4.3478260869565216E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -18353,20 +18534,29 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Age structure'!$C$2:$F$3</c:f>
+              <c:f>'Age structure'!$C$2:$I$3</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Baseline</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>Baseline (N=65)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>Endline</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
+                    <c:v>Endline (N=85)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Baseline</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
+                    <c:v>Baseline (N=92)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>Endline</c:v>
                   </c:pt>
                 </c:lvl>
@@ -18374,7 +18564,7 @@
                   <c:pt idx="0">
                     <c:v>Male</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="4">
                     <c:v>Female</c:v>
                   </c:pt>
                 </c:lvl>
@@ -18383,20 +18573,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Age structure'!$C$7:$F$7</c:f>
+              <c:f>'Age structure'!$C$7:$I$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.12307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.20652173913043478</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
@@ -38214,7 +38413,7 @@
 </file>
 
 <file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -38225,7 +38424,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -38238,6 +38437,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -38249,29 +38471,6 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -38290,23 +38489,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -38315,70 +38506,84 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -38400,15 +38605,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -38423,8 +38626,8 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -38442,10 +38645,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -38461,10 +38664,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -38480,40 +38683,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -38526,35 +38704,34 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -38562,6 +38739,24 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -38575,14 +38770,14 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -38590,7 +38785,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -38610,10 +38805,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -38628,13 +38823,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -38643,14 +38838,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -38680,8 +38874,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -38697,21 +38891,15 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -44900,16 +45088,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -46049,22 +46237,22 @@
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="75" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="75" t="s">
+      <c r="H2" s="78"/>
+      <c r="I2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="76"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="20.25" thickBot="1">
       <c r="B3" s="16" t="s">
@@ -46242,13 +46430,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="2:6" ht="16.5">
       <c r="B4" s="67" t="s">
@@ -46420,13 +46608,13 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
     </row>
     <row r="18" spans="2:6" ht="16.5">
       <c r="B18" s="67" t="s">
@@ -46657,13 +46845,13 @@
     <row r="30" spans="2:6" ht="19.5" customHeight="1"/>
     <row r="31" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="32" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
       <c r="B33" s="67" t="s">
@@ -46916,13 +47104,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="2:6" ht="16.5">
       <c r="B3" s="26" t="s">
@@ -47037,13 +47225,13 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
     </row>
     <row r="13" spans="2:6" ht="16.5">
       <c r="B13" s="26" t="s">
@@ -47158,13 +47346,13 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
     </row>
     <row r="27" spans="2:6" ht="16.5">
       <c r="B27" s="26" t="s">
@@ -47307,13 +47495,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="2:6" ht="16.5">
       <c r="B3" s="21" t="s">
@@ -47409,7 +47597,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="16.5">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="75" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="35">
@@ -47428,13 +47616,13 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
     </row>
     <row r="15" spans="2:6" ht="16.5">
       <c r="B15" s="21" t="s">
@@ -47528,7 +47716,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="16.5">
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="75" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="35">
@@ -47547,13 +47735,13 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
     </row>
     <row r="31" spans="2:6" ht="16.5">
       <c r="B31" s="21" t="s">
@@ -47645,7 +47833,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="16.5">
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="75" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="35">
@@ -47796,14 +47984,14 @@
       <c r="C14" s="35">
         <v>130</v>
       </c>
-      <c r="D14" s="90">
-        <f>C14/C$20</f>
+      <c r="D14" s="76">
+        <f t="shared" ref="D14:D20" si="2">C14/C$20</f>
         <v>0.82802547770700641</v>
       </c>
       <c r="E14" s="36">
         <v>36</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="76">
         <f>E14/E$20</f>
         <v>0.70588235294117652</v>
       </c>
@@ -47815,15 +48003,15 @@
       <c r="C15" s="35">
         <v>152</v>
       </c>
-      <c r="D15" s="90">
-        <f>C15/C$20</f>
+      <c r="D15" s="76">
+        <f t="shared" si="2"/>
         <v>0.96815286624203822</v>
       </c>
       <c r="E15" s="36">
         <v>49</v>
       </c>
-      <c r="F15" s="90">
-        <f t="shared" ref="F15:F20" si="2">E15/E$20</f>
+      <c r="F15" s="76">
+        <f t="shared" ref="F15:F20" si="3">E15/E$20</f>
         <v>0.96078431372549022</v>
       </c>
     </row>
@@ -47834,13 +48022,13 @@
       <c r="C16" s="35">
         <v>4</v>
       </c>
-      <c r="D16" s="90">
-        <f>C16/C$20</f>
+      <c r="D16" s="76">
+        <f t="shared" si="2"/>
         <v>2.5477707006369428E-2</v>
       </c>
       <c r="E16" s="36"/>
-      <c r="F16" s="90">
-        <f t="shared" si="2"/>
+      <c r="F16" s="76">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -47849,15 +48037,15 @@
         <v>172</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="90">
-        <f>C17/C$20</f>
+      <c r="D17" s="76">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17" s="36">
         <v>4</v>
       </c>
-      <c r="F17" s="90">
-        <f t="shared" si="2"/>
+      <c r="F17" s="76">
+        <f t="shared" si="3"/>
         <v>7.8431372549019607E-2</v>
       </c>
     </row>
@@ -47866,15 +48054,15 @@
         <v>173</v>
       </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="90">
-        <f>C18/C$20</f>
+      <c r="D18" s="76">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="36">
         <v>1</v>
       </c>
-      <c r="F18" s="90">
-        <f t="shared" si="2"/>
+      <c r="F18" s="76">
+        <f t="shared" si="3"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
@@ -47885,13 +48073,13 @@
       <c r="C19" s="35">
         <v>6</v>
       </c>
-      <c r="D19" s="90">
-        <f>C19/C$20</f>
+      <c r="D19" s="76">
+        <f t="shared" si="2"/>
         <v>3.8216560509554139E-2</v>
       </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="90">
-        <f t="shared" si="2"/>
+      <c r="F19" s="76">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -47902,26 +48090,26 @@
       <c r="C20" s="24">
         <v>157</v>
       </c>
-      <c r="D20" s="90">
-        <f>C20/C$20</f>
+      <c r="D20" s="76">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E20" s="24">
         <v>51</v>
       </c>
-      <c r="F20" s="90">
-        <f t="shared" si="2"/>
+      <c r="F20" s="76">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
     </row>
     <row r="29" spans="2:7" ht="16.5">
       <c r="B29" s="34" t="s">
@@ -47968,14 +48156,14 @@
         <v>8</v>
       </c>
       <c r="D31" s="39">
-        <f t="shared" ref="D31:D35" si="3">C31/C$35</f>
+        <f t="shared" ref="D31:D35" si="4">C31/C$35</f>
         <v>5.0955414012738856E-2</v>
       </c>
       <c r="E31" s="27">
         <v>2</v>
       </c>
       <c r="F31" s="39">
-        <f t="shared" ref="F31:F35" si="4">E31/E$35</f>
+        <f t="shared" ref="F31:F35" si="5">E31/E$35</f>
         <v>0.04</v>
       </c>
     </row>
@@ -47987,14 +48175,14 @@
         <v>86</v>
       </c>
       <c r="D32" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.54777070063694266</v>
       </c>
       <c r="E32" s="27">
         <v>13</v>
       </c>
       <c r="F32" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
     </row>
@@ -48006,12 +48194,12 @@
         <v>6</v>
       </c>
       <c r="D33" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8216560509554139E-2</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -48023,12 +48211,12 @@
         <v>3</v>
       </c>
       <c r="D34" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9108280254777069E-2</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -48040,14 +48228,14 @@
         <v>157</v>
       </c>
       <c r="D35" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E35" s="24">
         <v>50</v>
       </c>
       <c r="F35" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -48064,8 +48252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FE0FC-80C0-40B4-BAFE-F4ABAD0FBC2A}">
   <dimension ref="C4:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48158,7 +48346,7 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="16.5">
@@ -48393,7 +48581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0285E5B4-AB96-4E51-8518-0DC12662F897}">
   <dimension ref="B3:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -48700,24 +48888,24 @@
   <sheetData>
     <row r="1" spans="2:18" s="2" customFormat="1"/>
     <row r="2" spans="2:18" s="2" customFormat="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="37"/>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="37"/>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="78"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="37"/>
     </row>
     <row r="3" spans="2:18" s="2" customFormat="1" ht="16.5">
@@ -49076,202 +49264,299 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89EB671-9B8C-4956-A078-E4BCE8D49183}">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16.5">
-      <c r="B2" s="82" t="s">
+    <row r="2" spans="2:14" ht="16.5">
+      <c r="B2" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="79" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
     </row>
-    <row r="3" spans="2:10" ht="16.5">
-      <c r="B3" s="82"/>
+    <row r="3" spans="2:14" ht="16.5">
+      <c r="B3" s="90"/>
       <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="H3" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="J3" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="M3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16.5">
+    <row r="4" spans="2:14" ht="16.5">
       <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="23">
         <v>20</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="38">
+        <f>C4/C$8</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E4" s="23">
         <v>7</v>
       </c>
-      <c r="E4" s="23">
+      <c r="F4" s="38">
+        <f>E4/E$8</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G4" s="23">
         <v>35</v>
       </c>
-      <c r="F4" s="23">
+      <c r="H4" s="38">
+        <f>G4/G$8</f>
+        <v>0.38043478260869568</v>
+      </c>
+      <c r="I4" s="23">
         <v>16</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="J4" s="38">
+        <f>I4/I$8</f>
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="23">
+      <c r="M4" s="23">
         <v>7</v>
       </c>
-      <c r="J4" s="23">
+      <c r="N4" s="23">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="16.5">
+    <row r="5" spans="2:14" ht="16.5">
       <c r="B5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="23">
         <v>33</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="38">
+        <f t="shared" ref="D5:D8" si="0">C5/C$8</f>
+        <v>0.50769230769230766</v>
+      </c>
+      <c r="E5" s="23">
         <v>6</v>
       </c>
-      <c r="E5" s="23">
+      <c r="F5" s="38">
+        <f t="shared" ref="F5:F8" si="1">E5/E$8</f>
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="23">
         <v>34</v>
       </c>
-      <c r="F5" s="23">
+      <c r="H5" s="38">
+        <f t="shared" ref="H5:H8" si="2">G5/G$8</f>
+        <v>0.36956521739130432</v>
+      </c>
+      <c r="I5" s="23">
         <v>10</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="J5" s="38">
+        <f t="shared" ref="J5:J8" si="3">I5/I$8</f>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="L5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="23">
+      <c r="M5" s="23">
         <v>6</v>
       </c>
-      <c r="J5" s="23">
+      <c r="N5" s="23">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16.5">
+    <row r="6" spans="2:14" ht="16.5">
       <c r="B6" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="23">
         <v>4</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="38">
+        <f t="shared" si="0"/>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="E6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="F6" s="38">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G6" s="23">
         <v>4</v>
       </c>
-      <c r="F6" s="23">
+      <c r="H6" s="38">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="I6" s="23">
         <v>0</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="J6" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="23">
+      <c r="M6" s="23">
         <v>1</v>
       </c>
-      <c r="J6" s="23">
+      <c r="N6" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="16.5">
+    <row r="7" spans="2:14" ht="16.5">
       <c r="B7" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="23">
         <v>8</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="38">
+        <f t="shared" si="0"/>
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="E7" s="23">
         <v>1</v>
       </c>
-      <c r="E7" s="23">
+      <c r="F7" s="38">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G7" s="23">
         <v>19</v>
       </c>
-      <c r="F7" s="23">
+      <c r="H7" s="38">
+        <f t="shared" si="2"/>
+        <v>0.20652173913043478</v>
+      </c>
+      <c r="I7" s="23">
         <v>11</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="J7" s="38">
+        <f t="shared" si="3"/>
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="L7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="23">
+      <c r="M7" s="23">
         <v>1</v>
       </c>
-      <c r="J7" s="23">
+      <c r="N7" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="16.5">
+    <row r="8" spans="2:14" ht="16.5">
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="25">
-        <f>SUM(C4:C7)</f>
         <v>65</v>
       </c>
-      <c r="D8" s="25">
-        <f t="shared" ref="D8:F8" si="0">SUM(D4:D7)</f>
+      <c r="D8" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" ref="E8:I8" si="4">SUM(E4:E7)</f>
         <v>15</v>
       </c>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
+      <c r="F8" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="F8" s="25">
-        <f t="shared" si="0"/>
+      <c r="H8" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="J8" s="38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="28">
-        <f>SUM(I4:I7)</f>
+      <c r="M8" s="28">
+        <f>SUM(M4:M7)</f>
         <v>15</v>
       </c>
-      <c r="J8" s="28">
-        <f>SUM(J4:J7)</f>
+      <c r="N8" s="28">
+        <f>SUM(N4:N7)</f>
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -49308,12 +49593,12 @@
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="41"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="43"/>
@@ -50008,7 +50293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8019436-5573-41FC-B76E-026F1CCD3C23}">
   <dimension ref="B2:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -50023,13 +50308,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="2:6" ht="15.75">
       <c r="B3" s="54" t="s">
@@ -50144,13 +50429,13 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
     </row>
     <row r="13" spans="2:6" ht="16.5">
       <c r="B13" s="34" t="s">
@@ -50265,13 +50550,13 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
     </row>
     <row r="24" spans="2:6" ht="16.5">
       <c r="B24" s="34" t="s">
@@ -50424,11 +50709,11 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
     </row>
     <row r="35" spans="2:6" ht="33">
       <c r="B35" s="34" t="s">
@@ -50638,10 +50923,10 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="87"/>
+      <c r="C49" s="85"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -50827,13 +51112,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="B3" s="34" t="s">
@@ -50929,13 +51214,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" customHeight="1">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="19"/>
@@ -51033,13 +51318,13 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
     </row>
     <row r="20" spans="2:6" ht="16.5">
       <c r="B20" s="67" t="s">
@@ -51163,13 +51448,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="2:6" ht="16.5">
       <c r="B3" s="34" t="s">
@@ -51246,13 +51531,13 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
     </row>
     <row r="12" spans="2:6" ht="16.5">
       <c r="B12" s="34" t="s">
@@ -51329,13 +51614,13 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
     </row>
     <row r="22" spans="2:6" ht="16.5">
       <c r="B22" s="34" t="s">
@@ -51440,13 +51725,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="2:6" ht="16.5">
       <c r="B3" s="34" t="s">
@@ -51616,13 +51901,13 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
     </row>
     <row r="17" spans="2:6" ht="16.5">
       <c r="B17" s="34" t="s">
@@ -51794,13 +52079,13 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
     </row>
     <row r="31" spans="2:6" ht="16.5">
       <c r="B31" s="34" t="s">

--- a/excel_graphs/end_agg_graphs.xlsx
+++ b/excel_graphs/end_agg_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\data_projects\pes_report\pes-nippes-data-cleaning\excel_graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8649DA-79FA-41E0-8BDD-B947155F76D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7710A98-917F-4DD2-B9B0-09B03FA1E49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="850" firstSheet="9" activeTab="13" xr2:uid="{54DD5910-9903-4B13-BEAA-F5776CAFEE66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="850" activeTab="4" xr2:uid="{54DD5910-9903-4B13-BEAA-F5776CAFEE66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sex" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="190">
   <si>
     <t>Respondents</t>
   </si>
@@ -1142,6 +1142,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1162,15 +1171,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -46430,13 +46430,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="2:6" ht="16.5">
       <c r="B4" s="67" t="s">
@@ -46608,13 +46608,13 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
     </row>
     <row r="18" spans="2:6" ht="16.5">
       <c r="B18" s="67" t="s">
@@ -46845,13 +46845,13 @@
     <row r="30" spans="2:6" ht="19.5" customHeight="1"/>
     <row r="31" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="32" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
       <c r="B33" s="67" t="s">
@@ -47104,13 +47104,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="2:6" ht="16.5">
       <c r="B3" s="26" t="s">
@@ -47225,13 +47225,13 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
     </row>
     <row r="13" spans="2:6" ht="16.5">
       <c r="B13" s="26" t="s">
@@ -47346,13 +47346,13 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
     </row>
     <row r="27" spans="2:6" ht="16.5">
       <c r="B27" s="26" t="s">
@@ -47495,13 +47495,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="2:6" ht="16.5">
       <c r="B3" s="21" t="s">
@@ -47616,13 +47616,13 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
     </row>
     <row r="15" spans="2:6" ht="16.5">
       <c r="B15" s="21" t="s">
@@ -47735,13 +47735,13 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
     </row>
     <row r="31" spans="2:6" ht="16.5">
       <c r="B31" s="21" t="s">
@@ -48103,13 +48103,13 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
     </row>
     <row r="29" spans="2:7" ht="16.5">
       <c r="B29" s="34" t="s">
@@ -48252,7 +48252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FE0FC-80C0-40B4-BAFE-F4ABAD0FBC2A}">
   <dimension ref="C4:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -49285,24 +49285,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="16.5">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="2:14" ht="16.5">
-      <c r="B3" s="90"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
@@ -49593,12 +49593,12 @@
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="41"/>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="83"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="86"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="43"/>
@@ -49907,8 +49907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D7E02C-766B-4912-A4EF-4283037DD9F2}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50254,6 +50254,9 @@
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="2:13" ht="16.5">
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
       <c r="I14" s="19"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -50308,13 +50311,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="2:6" ht="15.75">
       <c r="B3" s="54" t="s">
@@ -50429,13 +50432,13 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
     </row>
     <row r="13" spans="2:6" ht="16.5">
       <c r="B13" s="34" t="s">
@@ -50550,13 +50553,13 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
     </row>
     <row r="24" spans="2:6" ht="16.5">
       <c r="B24" s="34" t="s">
@@ -50709,11 +50712,11 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
     </row>
     <row r="35" spans="2:6" ht="33">
       <c r="B35" s="34" t="s">
@@ -50923,10 +50926,10 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="85"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -51112,13 +51115,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="B3" s="34" t="s">
@@ -51214,13 +51217,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" customHeight="1">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="19"/>
@@ -51318,13 +51321,13 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
     </row>
     <row r="20" spans="2:6" ht="16.5">
       <c r="B20" s="67" t="s">
@@ -51448,13 +51451,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="2:6" ht="16.5">
       <c r="B3" s="34" t="s">
@@ -51531,13 +51534,13 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
     </row>
     <row r="12" spans="2:6" ht="16.5">
       <c r="B12" s="34" t="s">
@@ -51614,13 +51617,13 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
     </row>
     <row r="22" spans="2:6" ht="16.5">
       <c r="B22" s="34" t="s">
@@ -51725,13 +51728,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="2:6" ht="16.5">
       <c r="B3" s="34" t="s">
@@ -51901,13 +51904,13 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
     </row>
     <row r="17" spans="2:6" ht="16.5">
       <c r="B17" s="34" t="s">
@@ -52079,13 +52082,13 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
     </row>
     <row r="31" spans="2:6" ht="16.5">
       <c r="B31" s="34" t="s">
